--- a/results/mp/logistic/corona/confidence/126/masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="127">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,112 +40,115 @@
     <t>name</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>isolation</t>
   </si>
   <si>
     <t>risk</t>
@@ -157,18 +160,12 @@
     <t>fight</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>:</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -178,244 +175,223 @@
     <t>prices</t>
   </si>
   <si>
-    <t>on</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
   </si>
   <si>
     <t>are</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
+    <t>for</t>
   </si>
   <si>
     <t>,</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>for</t>
   </si>
   <si>
     <t>?</t>
@@ -776,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -784,10 +760,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -866,16 +842,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -887,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -895,13 +871,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -913,31 +889,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L4">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4">
-        <v>0.9322033898305084</v>
-      </c>
-      <c r="L4">
-        <v>55</v>
-      </c>
-      <c r="M4">
-        <v>55</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -945,13 +921,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8529411764705882</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -963,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -987,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -995,13 +971,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8421052631578947</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1013,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K6">
         <v>0.8947368421052632</v>
@@ -1045,13 +1021,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1063,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1087,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1095,13 +1071,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7826086956521739</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1113,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K8">
         <v>0.8666666666666667</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1137,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1145,13 +1121,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7777777777777778</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1163,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K9">
-        <v>0.8611111111111112</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1187,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1195,13 +1171,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.773972602739726</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C10">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1213,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K10">
-        <v>0.8482142857142857</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1237,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1245,13 +1221,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7666666666666667</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1263,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K11">
-        <v>0.835509138381201</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L11">
-        <v>320</v>
+        <v>18</v>
       </c>
       <c r="M11">
-        <v>320</v>
+        <v>18</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1287,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>63</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1295,13 +1271,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7586206896551724</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1313,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K12">
-        <v>0.8125</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1337,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1345,13 +1321,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7027027027027027</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1363,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K13">
-        <v>0.8098591549295775</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L13">
-        <v>115</v>
+        <v>312</v>
       </c>
       <c r="M13">
-        <v>115</v>
+        <v>312</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1387,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1395,13 +1371,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6842105263157895</v>
+        <v>0.68</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1413,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.8125</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1437,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1445,13 +1421,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.68</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1463,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K15">
-        <v>0.7872340425531915</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1487,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1495,13 +1471,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6538461538461539</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1513,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1537,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1545,13 +1521,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.65</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1563,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1587,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1595,13 +1571,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1613,31 +1589,31 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>22</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L18">
+        <v>46</v>
+      </c>
+      <c r="M18">
+        <v>46</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>12</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18">
-        <v>0.775</v>
-      </c>
-      <c r="L18">
-        <v>124</v>
-      </c>
-      <c r="M18">
-        <v>124</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1645,13 +1621,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5769230769230769</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1663,19 +1639,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K19">
-        <v>0.7735849056603774</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L19">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M19">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1687,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1695,13 +1671,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5686274509803921</v>
+        <v>0.5503875968992248</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>284</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>284</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1713,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K20">
-        <v>0.7682926829268293</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L20">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1737,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1745,13 +1721,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5652173913043478</v>
+        <v>0.55</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1763,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K21">
-        <v>0.7575757575757576</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1787,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1795,13 +1771,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5652173913043478</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1813,19 +1789,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K22">
-        <v>0.7441860465116279</v>
+        <v>0.775</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1837,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1845,13 +1821,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5608465608465608</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C23">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1863,19 +1839,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K23">
-        <v>0.7435897435897436</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1887,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1895,13 +1871,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.559322033898305</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1913,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K24">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1937,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1945,13 +1921,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5368217054263565</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="C25">
-        <v>277</v>
+        <v>72</v>
       </c>
       <c r="D25">
-        <v>277</v>
+        <v>72</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1963,19 +1939,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K25">
-        <v>0.7368421052631579</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1987,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1995,13 +1971,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5100671140939598</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C26">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2013,19 +1989,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K26">
-        <v>0.7301587301587301</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L26">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2037,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2045,13 +2021,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2063,19 +2039,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K27">
-        <v>0.7272727272727273</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2087,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2095,13 +2071,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4838709677419355</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2113,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K28">
-        <v>0.7272727272727273</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2137,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2145,37 +2121,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4615384615384616</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C29">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>18</v>
       </c>
-      <c r="D29">
-        <v>18</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>21</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K29">
-        <v>0.7265625</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L29">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2187,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2195,13 +2171,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4533333333333333</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2213,19 +2189,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K30">
-        <v>0.7142857142857143</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2237,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2245,13 +2221,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4363636363636363</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2263,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K31">
-        <v>0.7</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2287,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2295,13 +2271,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4363636363636363</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2313,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K32">
-        <v>0.6875</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2337,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2345,13 +2321,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4193548387096774</v>
+        <v>0.375</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2363,19 +2339,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K33">
-        <v>0.6529411764705882</v>
+        <v>0.65</v>
       </c>
       <c r="L33">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2387,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>118</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2395,13 +2371,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4166666666666667</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2413,19 +2389,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K34">
-        <v>0.625</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2437,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2445,13 +2421,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4111111111111111</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C35">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2463,19 +2439,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K35">
-        <v>0.6071428571428571</v>
+        <v>0.64</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2487,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2495,38 +2471,38 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4054054054054054</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C36">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>23</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K36">
+        <v>0.625</v>
+      </c>
+      <c r="L36">
         <v>15</v>
       </c>
-      <c r="D36">
+      <c r="M36">
         <v>15</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>22</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K36">
-        <v>0.6</v>
-      </c>
-      <c r="L36">
-        <v>21</v>
-      </c>
-      <c r="M36">
-        <v>21</v>
-      </c>
       <c r="N36">
         <v>1</v>
       </c>
@@ -2537,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2545,13 +2521,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2563,19 +2539,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K37">
-        <v>0.5966101694915255</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L37">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="M37">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2587,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>119</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2595,13 +2571,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.358974358974359</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="C38">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D38">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2613,19 +2589,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K38">
-        <v>0.5857740585774058</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L38">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="M38">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2637,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>99</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2645,13 +2621,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2597402597402597</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2663,31 +2639,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K39">
-        <v>0.5833333333333334</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2695,13 +2671,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.257936507936508</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C40">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D40">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2713,19 +2689,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K40">
-        <v>0.58</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="M40">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2737,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2748,10 +2724,10 @@
         <v>0.25</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2763,19 +2739,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K41">
-        <v>0.5714285714285714</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2787,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2795,13 +2771,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2444444444444444</v>
+        <v>0.2</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2813,19 +2789,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K42">
-        <v>0.5652173913043478</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2837,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2845,13 +2821,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1689008042895442</v>
+        <v>0.1796246648793566</v>
       </c>
       <c r="C43">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D43">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2863,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K43">
         <v>0.5652173913043478</v>
@@ -2895,13 +2871,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.06666666666666667</v>
+        <v>0.09666666666666666</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2913,19 +2889,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K44">
-        <v>0.5571428571428572</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L44">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M44">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2937,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2945,37 +2921,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.01598173515981735</v>
+        <v>0.01612383102225089</v>
       </c>
       <c r="C45">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E45">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="F45">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>862</v>
+        <v>3051</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K45">
-        <v>0.5538461538461539</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L45">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2987,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2995,13 +2971,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01581155211358503</v>
+        <v>0.0130581297388374</v>
       </c>
       <c r="C46">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D46">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E46">
         <v>0.14</v>
@@ -3013,19 +2989,19 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>3050</v>
+        <v>2343</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K46">
-        <v>0.5531914893617021</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L46">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3037,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3045,28 +3021,28 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.01561840439003799</v>
+        <v>0.01119724375538329</v>
       </c>
       <c r="C47">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E47">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>2332</v>
+        <v>1148</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K47">
         <v>0.5185185185185185</v>
@@ -3095,37 +3071,37 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01295336787564767</v>
+        <v>0.01089324618736384</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D48">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E48">
-        <v>0.17</v>
+        <v>0.36</v>
       </c>
       <c r="F48">
-        <v>0.83</v>
+        <v>0.64</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>1143</v>
+        <v>2270</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K48">
-        <v>0.5168539325842697</v>
+        <v>0.5</v>
       </c>
       <c r="L48">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3137,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3145,37 +3121,37 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.01229148375768218</v>
+        <v>0.00936768149882904</v>
       </c>
       <c r="C49">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E49">
-        <v>0.07000000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="F49">
-        <v>0.9299999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1125</v>
+        <v>2115</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K49">
-        <v>0.5161290322580645</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3187,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3195,49 +3171,49 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.01178318931657502</v>
+        <v>0.007453666398066076</v>
       </c>
       <c r="C50">
+        <v>37</v>
+      </c>
+      <c r="D50">
+        <v>69</v>
+      </c>
+      <c r="E50">
+        <v>0.46</v>
+      </c>
+      <c r="F50">
+        <v>0.54</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>4927</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K50">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L50">
+        <v>13</v>
+      </c>
+      <c r="M50">
+        <v>13</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>15</v>
-      </c>
-      <c r="D50">
-        <v>31</v>
-      </c>
-      <c r="E50">
-        <v>0.52</v>
-      </c>
-      <c r="F50">
-        <v>0.48</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>1258</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K50">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="L50">
-        <v>23</v>
-      </c>
-      <c r="M50">
-        <v>23</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3245,37 +3221,37 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01122544434050514</v>
+        <v>0.00720404984423676</v>
       </c>
       <c r="C51">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D51">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E51">
-        <v>0.17</v>
+        <v>0.44</v>
       </c>
       <c r="F51">
-        <v>0.83</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>2114</v>
+        <v>5099</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K51">
-        <v>0.5098039215686274</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L51">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3287,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3295,37 +3271,37 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.008286088094199739</v>
+        <v>0.00604370060437006</v>
       </c>
       <c r="C52">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D52">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E52">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="F52">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>2274</v>
+        <v>4276</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K52">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3337,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3345,37 +3321,37 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.007676203768318213</v>
+        <v>0.005311077389984826</v>
       </c>
       <c r="C53">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D53">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E53">
-        <v>0.47</v>
+        <v>0.73</v>
       </c>
       <c r="F53">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>4266</v>
+        <v>2622</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K53">
-        <v>0.4848484848484849</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L53">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3387,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3395,137 +3371,89 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.007670569236980218</v>
+        <v>0.004403900597672224</v>
       </c>
       <c r="C54">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D54">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E54">
-        <v>0.53</v>
+        <v>0.61</v>
       </c>
       <c r="F54">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>4916</v>
+        <v>3165</v>
       </c>
       <c r="J54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K54">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="L54">
+        <v>24</v>
+      </c>
+      <c r="M54">
+        <v>24</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="J55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K55">
+        <v>0.288135593220339</v>
+      </c>
+      <c r="L55">
+        <v>17</v>
+      </c>
+      <c r="M55">
+        <v>17</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="J56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K54">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L54">
-        <v>13</v>
-      </c>
-      <c r="M54">
-        <v>13</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55">
-        <v>0.006622516556291391</v>
-      </c>
-      <c r="C55">
-        <v>34</v>
-      </c>
-      <c r="D55">
-        <v>65</v>
-      </c>
-      <c r="E55">
-        <v>0.48</v>
-      </c>
-      <c r="F55">
-        <v>0.52</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>5100</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K55">
-        <v>0.4523809523809524</v>
-      </c>
-      <c r="L55">
-        <v>19</v>
-      </c>
-      <c r="M55">
-        <v>19</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56">
-        <v>0.006200909466721785</v>
-      </c>
-      <c r="C56">
-        <v>15</v>
-      </c>
-      <c r="D56">
-        <v>41</v>
-      </c>
-      <c r="E56">
-        <v>0.63</v>
-      </c>
-      <c r="F56">
-        <v>0.37</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>2404</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="K56">
-        <v>0.3717948717948718</v>
+        <v>0.265625</v>
       </c>
       <c r="L56">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M56">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3537,21 +3465,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="J57" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K57">
-        <v>0.3698630136986301</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="L57">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3563,21 +3491,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="J58" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K58">
-        <v>0.3389830508474576</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L58">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M58">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3589,15 +3517,15 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="J59" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K59">
-        <v>0.2982456140350877</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L59">
         <v>17</v>
@@ -3615,21 +3543,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="J60" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K60">
-        <v>0.296875</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="L60">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M60">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3641,15 +3569,15 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>45</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="J61" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K61">
-        <v>0.2131147540983606</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="L61">
         <v>13</v>
@@ -3667,501 +3595,345 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>48</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K62">
-        <v>0.1296296296296296</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="L62">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N62">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>94</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K63">
-        <v>0.0918918918918919</v>
+        <v>0.03839732888146911</v>
       </c>
       <c r="L63">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M63">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>168</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K64">
-        <v>0.0487012987012987</v>
+        <v>0.03119266055045872</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M64">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>293</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K65">
-        <v>0.04498269896193772</v>
+        <v>0.02032838154808444</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M65">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>276</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="K66">
-        <v>0.04204753199268738</v>
+        <v>0.0139150056412185</v>
       </c>
       <c r="L66">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M66">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>524</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K67">
-        <v>0.0360576923076923</v>
+        <v>0.01070528967254408</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M67">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>401</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K68">
-        <v>0.03502919099249374</v>
+        <v>0.01068639539662967</v>
       </c>
       <c r="L68">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M68">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N68">
-        <v>0.98</v>
+        <v>0.68</v>
       </c>
       <c r="O68">
-        <v>0.02000000000000002</v>
+        <v>0.32</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>1157</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K69">
-        <v>0.03117505995203837</v>
+        <v>0.01045587620242576</v>
       </c>
       <c r="L69">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M69">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N69">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="O69">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>404</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="K70">
-        <v>0.01614720240330455</v>
+        <v>0.006903043614684657</v>
       </c>
       <c r="L70">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M70">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="N70">
-        <v>0.8100000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="O70">
-        <v>0.1899999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>2620</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="K71">
-        <v>0.01421319796954315</v>
+        <v>0.006452913893930228</v>
       </c>
       <c r="L71">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M71">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="N71">
-        <v>0.78</v>
+        <v>0.46</v>
       </c>
       <c r="O71">
-        <v>0.22</v>
+        <v>0.54</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>971</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K72">
-        <v>0.01255886970172685</v>
+        <v>0.006129597197898424</v>
       </c>
       <c r="L72">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M72">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N72">
-        <v>0.52</v>
+        <v>0.36</v>
       </c>
       <c r="O72">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>1258</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="K73">
-        <v>0.01221804511278195</v>
+        <v>0.00604370060437006</v>
       </c>
       <c r="L73">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M73">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N73">
-        <v>0.8100000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="O73">
-        <v>0.1899999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>3153</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="K74">
-        <v>0.0113421550094518</v>
+        <v>0.005655226209048362</v>
       </c>
       <c r="L74">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M74">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="N74">
-        <v>0.72</v>
+        <v>0.44</v>
       </c>
       <c r="O74">
-        <v>0.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="75" spans="10:17">
-      <c r="J75" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K75">
-        <v>0.01069958847736626</v>
-      </c>
-      <c r="L75">
-        <v>26</v>
-      </c>
-      <c r="M75">
-        <v>41</v>
-      </c>
-      <c r="N75">
-        <v>0.63</v>
-      </c>
-      <c r="O75">
-        <v>0.37</v>
-      </c>
-      <c r="P75" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q75">
-        <v>2404</v>
-      </c>
-    </row>
-    <row r="76" spans="10:17">
-      <c r="J76" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K76">
-        <v>0.009212730318257957</v>
-      </c>
-      <c r="L76">
-        <v>22</v>
-      </c>
-      <c r="M76">
-        <v>28</v>
-      </c>
-      <c r="N76">
-        <v>0.79</v>
-      </c>
-      <c r="O76">
-        <v>0.21</v>
-      </c>
-      <c r="P76" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q76">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="77" spans="10:17">
-      <c r="J77" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K77">
-        <v>0.008471157724889069</v>
-      </c>
-      <c r="L77">
-        <v>42</v>
-      </c>
-      <c r="M77">
-        <v>80</v>
-      </c>
-      <c r="N77">
-        <v>0.53</v>
-      </c>
-      <c r="O77">
-        <v>0.47</v>
-      </c>
-      <c r="P77" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q77">
-        <v>4916</v>
-      </c>
-    </row>
-    <row r="78" spans="10:17">
-      <c r="J78" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K78">
-        <v>0.006986899563318777</v>
-      </c>
-      <c r="L78">
-        <v>16</v>
-      </c>
-      <c r="M78">
-        <v>35</v>
-      </c>
-      <c r="N78">
-        <v>0.46</v>
-      </c>
-      <c r="O78">
-        <v>0.54</v>
-      </c>
-      <c r="P78" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q78">
-        <v>2274</v>
-      </c>
-    </row>
-    <row r="79" spans="10:17">
-      <c r="J79" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K79">
-        <v>0.006752037252619325</v>
-      </c>
-      <c r="L79">
-        <v>29</v>
-      </c>
-      <c r="M79">
-        <v>62</v>
-      </c>
-      <c r="N79">
-        <v>0.47</v>
-      </c>
-      <c r="O79">
-        <v>0.53</v>
-      </c>
-      <c r="P79" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q79">
-        <v>4266</v>
-      </c>
-    </row>
-    <row r="80" spans="10:17">
-      <c r="J80" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K80">
-        <v>0.006041707269538101</v>
-      </c>
-      <c r="L80">
-        <v>31</v>
-      </c>
-      <c r="M80">
-        <v>65</v>
-      </c>
-      <c r="N80">
-        <v>0.48</v>
-      </c>
-      <c r="O80">
-        <v>0.52</v>
-      </c>
-      <c r="P80" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>5100</v>
+        <v>5099</v>
       </c>
     </row>
   </sheetData>
